--- a/Repositorio Agricultura/Papa/Bpapa1120.xlsx
+++ b/Repositorio Agricultura/Papa/Bpapa1120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Papa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67603A6C-53CC-45AA-9559-B4254BF5759C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CBC2E-F80B-44D8-B7A4-48A3AD72872A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="800" firstSheet="10" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="800" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -3472,7 +3472,7 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="0" xfId="344" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4307,11 +4307,8 @@
     <xf numFmtId="0" fontId="31" fillId="55" borderId="37" xfId="344" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="55" borderId="16" xfId="283" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="55" borderId="15" xfId="283" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="60" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="57" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4321,6 +4318,18 @@
     </xf>
     <xf numFmtId="0" fontId="76" fillId="57" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="55" borderId="16" xfId="283" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="55" borderId="15" xfId="283" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4333,15 +4342,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4362,12 +4362,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="55" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4394,14 +4388,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="55" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="55" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="451">
@@ -18032,14 +18026,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18674,14 +18668,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18753,14 +18747,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21128,7 +21122,9 @@
   </sheetPr>
   <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:T4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
@@ -27829,7 +27825,9 @@
   </sheetPr>
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
@@ -27854,12 +27852,12 @@
       <c r="I1" s="118"/>
     </row>
     <row r="2" spans="2:9" ht="13">
-      <c r="B2" s="339" t="s">
+      <c r="B2" s="342" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
       <c r="F2" s="118"/>
       <c r="G2" s="28" t="s">
         <v>9</v>
@@ -27868,24 +27866,24 @@
       <c r="I2" s="118"/>
     </row>
     <row r="3" spans="2:9" ht="13">
-      <c r="B3" s="339" t="s">
+      <c r="B3" s="342" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
       <c r="F3" s="118"/>
       <c r="G3" s="28"/>
       <c r="H3" s="118"/>
       <c r="I3" s="118"/>
     </row>
     <row r="4" spans="2:9" ht="13">
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="342" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="339"/>
-      <c r="D4" s="339"/>
-      <c r="E4" s="339"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
       <c r="F4" s="118"/>
       <c r="G4" s="118"/>
       <c r="H4" s="118"/>
@@ -28093,25 +28091,25 @@
       <c r="I16" s="118"/>
     </row>
     <row r="17" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B17" s="336" t="s">
+      <c r="B17" s="335" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="337"/>
-      <c r="D17" s="337"/>
-      <c r="E17" s="338"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="337"/>
     </row>
     <row r="18" spans="2:5" ht="13">
-      <c r="B18" s="334" t="s">
+      <c r="B18" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="340" t="s">
+      <c r="C18" s="343" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="341"/>
-      <c r="E18" s="342"/>
+      <c r="D18" s="344"/>
+      <c r="E18" s="345"/>
     </row>
     <row r="19" spans="2:5" ht="13">
-      <c r="B19" s="335"/>
+      <c r="B19" s="341"/>
       <c r="C19" s="264">
         <v>6000</v>
       </c>
@@ -28180,12 +28178,12 @@
       <c r="E23" s="137"/>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1">
-      <c r="B24" s="336" t="s">
+      <c r="B24" s="335" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="337"/>
-      <c r="D24" s="337"/>
-      <c r="E24" s="338"/>
+      <c r="C24" s="336"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="337"/>
     </row>
     <row r="25" spans="2:5" ht="13">
       <c r="B25" s="119" t="s">
@@ -28238,55 +28236,61 @@
       <c r="E28" s="111"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="343" t="s">
+      <c r="B29" s="334" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="343"/>
-      <c r="D29" s="343"/>
-      <c r="E29" s="343"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="334"/>
     </row>
     <row r="30" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B30" s="344" t="s">
+      <c r="B30" s="338" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="338"/>
+      <c r="E30" s="338"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="345" t="s">
+      <c r="B31" s="339" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="345"/>
-      <c r="D31" s="345"/>
-      <c r="E31" s="345"/>
+      <c r="C31" s="339"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="339"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="343" t="s">
+      <c r="B32" s="334" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="343"/>
-      <c r="D32" s="343"/>
-      <c r="E32" s="343"/>
+      <c r="C32" s="334"/>
+      <c r="D32" s="334"/>
+      <c r="E32" s="334"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="343" t="s">
+      <c r="B33" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="343"/>
-      <c r="D33" s="343"/>
-      <c r="E33" s="343"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="334"/>
+      <c r="E33" s="334"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="343" t="s">
+      <c r="B34" s="334" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="343"/>
-      <c r="D34" s="343"/>
-      <c r="E34" s="343"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="334"/>
+      <c r="E34" s="334"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B24:E24"/>
@@ -28294,12 +28298,6 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" location="Índice!A1" display="Volver al índice" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
@@ -28320,7 +28318,9 @@
   </sheetPr>
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="91" zoomScaleNormal="90" zoomScaleSheetLayoutView="91" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="91" zoomScaleNormal="90" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
@@ -28376,7 +28376,7 @@
       <c r="B4" s="351" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="351" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="348" t="s">
@@ -28396,7 +28396,7 @@
     </row>
     <row r="5" spans="2:14" ht="31.5" customHeight="1">
       <c r="B5" s="352"/>
-      <c r="C5" s="354"/>
+      <c r="C5" s="352"/>
       <c r="D5" s="269" t="s">
         <v>198</v>
       </c>
@@ -28430,7 +28430,7 @@
       <c r="N5" s="118"/>
     </row>
     <row r="6" spans="2:14" ht="15.5" customHeight="1">
-      <c r="B6" s="355" t="s">
+      <c r="B6" s="353" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="274" t="s">
@@ -28465,7 +28465,7 @@
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:14" ht="14.5">
-      <c r="B7" s="356"/>
+      <c r="B7" s="354"/>
       <c r="C7" s="212" t="s">
         <v>202</v>
       </c>
@@ -28498,7 +28498,7 @@
       <c r="N7" s="27"/>
     </row>
     <row r="8" spans="2:14" ht="14.5">
-      <c r="B8" s="356"/>
+      <c r="B8" s="354"/>
       <c r="C8" s="212" t="s">
         <v>203</v>
       </c>
@@ -28531,7 +28531,7 @@
       <c r="N8" s="27"/>
     </row>
     <row r="9" spans="2:14" ht="14.5">
-      <c r="B9" s="356"/>
+      <c r="B9" s="354"/>
       <c r="C9" s="212" t="s">
         <v>204</v>
       </c>
@@ -28564,7 +28564,7 @@
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="2:14" ht="14.5">
-      <c r="B10" s="356"/>
+      <c r="B10" s="354"/>
       <c r="C10" s="212" t="s">
         <v>205</v>
       </c>
@@ -28597,7 +28597,7 @@
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="2:14" ht="14.5">
-      <c r="B11" s="356"/>
+      <c r="B11" s="354"/>
       <c r="C11" s="212" t="s">
         <v>206</v>
       </c>
@@ -28630,7 +28630,7 @@
       <c r="N11" s="27"/>
     </row>
     <row r="12" spans="2:14" ht="14.5">
-      <c r="B12" s="356"/>
+      <c r="B12" s="354"/>
       <c r="C12" s="212" t="s">
         <v>207</v>
       </c>
@@ -28663,7 +28663,7 @@
       <c r="N12" s="27"/>
     </row>
     <row r="13" spans="2:14" ht="14.5">
-      <c r="B13" s="356"/>
+      <c r="B13" s="354"/>
       <c r="C13" s="212" t="s">
         <v>208</v>
       </c>
@@ -28696,7 +28696,7 @@
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="2:14" ht="12.5" customHeight="1">
-      <c r="B14" s="356"/>
+      <c r="B14" s="354"/>
       <c r="C14" s="212" t="s">
         <v>209</v>
       </c>
@@ -28729,7 +28729,7 @@
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="2:14" ht="14.75" customHeight="1">
-      <c r="B15" s="356"/>
+      <c r="B15" s="354"/>
       <c r="C15" s="212" t="s">
         <v>210</v>
       </c>
@@ -28762,7 +28762,7 @@
       <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" ht="14.5">
-      <c r="B16" s="357"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="216" t="s">
         <v>212</v>
       </c>
@@ -28828,7 +28828,7 @@
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="14.75" customHeight="1">
-      <c r="B18" s="355" t="s">
+      <c r="B18" s="353" t="s">
         <v>214</v>
       </c>
       <c r="C18" s="274" t="s">
@@ -28863,7 +28863,7 @@
       <c r="N18" s="27"/>
     </row>
     <row r="19" spans="2:14" ht="14.5">
-      <c r="B19" s="356"/>
+      <c r="B19" s="354"/>
       <c r="C19" s="212" t="s">
         <v>216</v>
       </c>
@@ -28896,7 +28896,7 @@
       <c r="N19" s="27"/>
     </row>
     <row r="20" spans="2:14" ht="14.5">
-      <c r="B20" s="357"/>
+      <c r="B20" s="355"/>
       <c r="C20" s="216" t="s">
         <v>202</v>
       </c>
@@ -28962,7 +28962,7 @@
       <c r="N21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1">
-      <c r="B22" s="355" t="s">
+      <c r="B22" s="353" t="s">
         <v>218</v>
       </c>
       <c r="C22" s="274" t="s">
@@ -28997,7 +28997,7 @@
       <c r="N22" s="27"/>
     </row>
     <row r="23" spans="2:14" ht="14.5">
-      <c r="B23" s="356"/>
+      <c r="B23" s="354"/>
       <c r="C23" s="212" t="s">
         <v>201</v>
       </c>
@@ -29030,7 +29030,7 @@
       <c r="N23" s="27"/>
     </row>
     <row r="24" spans="2:14" s="118" customFormat="1" ht="14.5">
-      <c r="B24" s="357"/>
+      <c r="B24" s="355"/>
       <c r="C24" s="216" t="s">
         <v>202</v>
       </c>
@@ -29161,7 +29161,7 @@
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="2:14" ht="14.5">
-      <c r="B28" s="355" t="s">
+      <c r="B28" s="353" t="s">
         <v>222</v>
       </c>
       <c r="C28" s="274" t="s">
@@ -29196,7 +29196,7 @@
       <c r="N28" s="27"/>
     </row>
     <row r="29" spans="2:14" s="118" customFormat="1" ht="14.5">
-      <c r="B29" s="356"/>
+      <c r="B29" s="354"/>
       <c r="C29" s="212" t="s">
         <v>205</v>
       </c>
@@ -29228,7 +29228,7 @@
       <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" s="118" customFormat="1" ht="14.5">
-      <c r="B30" s="357"/>
+      <c r="B30" s="355"/>
       <c r="C30" s="216" t="s">
         <v>224</v>
       </c>
@@ -29357,7 +29357,7 @@
       <c r="L33" s="118"/>
     </row>
     <row r="34" spans="2:13" ht="14.75" customHeight="1">
-      <c r="B34" s="358" t="s">
+      <c r="B34" s="356" t="s">
         <v>228</v>
       </c>
       <c r="C34" s="274" t="s">
@@ -29391,7 +29391,7 @@
       <c r="M34" s="118"/>
     </row>
     <row r="35" spans="2:13" ht="14.5">
-      <c r="B35" s="359"/>
+      <c r="B35" s="357"/>
       <c r="C35" s="216" t="s">
         <v>201</v>
       </c>
@@ -29705,10 +29705,10 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="2:13" ht="13">
-      <c r="B4" s="363" t="s">
+      <c r="B4" s="362" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="363" t="s">
+      <c r="C4" s="362" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="348" t="s">
@@ -29727,8 +29727,8 @@
       <c r="M4" s="118"/>
     </row>
     <row r="5" spans="2:13" ht="26">
-      <c r="B5" s="364"/>
-      <c r="C5" s="364"/>
+      <c r="B5" s="363"/>
+      <c r="C5" s="363"/>
       <c r="D5" s="280" t="str">
         <f>+export!D5</f>
         <v>2019</v>
@@ -29765,7 +29765,7 @@
       <c r="M5" s="118"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="355" t="s">
+      <c r="B6" s="353" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="218" t="s">
@@ -29799,7 +29799,7 @@
       <c r="M6" s="190"/>
     </row>
     <row r="7" spans="2:13" ht="14.5">
-      <c r="B7" s="356"/>
+      <c r="B7" s="354"/>
       <c r="C7" s="219" t="s">
         <v>239</v>
       </c>
@@ -29831,7 +29831,7 @@
       <c r="M7" s="118"/>
     </row>
     <row r="8" spans="2:13" ht="14.5">
-      <c r="B8" s="356"/>
+      <c r="B8" s="354"/>
       <c r="C8" s="219" t="s">
         <v>201</v>
       </c>
@@ -29863,7 +29863,7 @@
       <c r="M8" s="118"/>
     </row>
     <row r="9" spans="2:13" ht="14.5">
-      <c r="B9" s="356"/>
+      <c r="B9" s="354"/>
       <c r="C9" s="219" t="s">
         <v>212</v>
       </c>
@@ -29895,7 +29895,7 @@
       <c r="M9" s="118"/>
     </row>
     <row r="10" spans="2:13" ht="14.5">
-      <c r="B10" s="356"/>
+      <c r="B10" s="354"/>
       <c r="C10" s="219" t="s">
         <v>206</v>
       </c>
@@ -29927,7 +29927,7 @@
       <c r="M10" s="118"/>
     </row>
     <row r="11" spans="2:13" ht="14.5">
-      <c r="B11" s="356"/>
+      <c r="B11" s="354"/>
       <c r="C11" s="219" t="s">
         <v>240</v>
       </c>
@@ -29959,7 +29959,7 @@
       <c r="M11" s="118"/>
     </row>
     <row r="12" spans="2:13" ht="14.5">
-      <c r="B12" s="356"/>
+      <c r="B12" s="354"/>
       <c r="C12" s="219" t="s">
         <v>241</v>
       </c>
@@ -29991,7 +29991,7 @@
       <c r="M12" s="118"/>
     </row>
     <row r="13" spans="2:13" ht="14.5">
-      <c r="B13" s="356"/>
+      <c r="B13" s="354"/>
       <c r="C13" s="219" t="s">
         <v>242</v>
       </c>
@@ -30023,7 +30023,7 @@
       <c r="M13" s="118"/>
     </row>
     <row r="14" spans="2:13" ht="14.5">
-      <c r="B14" s="356"/>
+      <c r="B14" s="354"/>
       <c r="C14" s="219" t="s">
         <v>202</v>
       </c>
@@ -30055,7 +30055,7 @@
       <c r="M14" s="118"/>
     </row>
     <row r="15" spans="2:13" ht="14.5">
-      <c r="B15" s="356"/>
+      <c r="B15" s="354"/>
       <c r="C15" s="219" t="s">
         <v>243</v>
       </c>
@@ -30087,7 +30087,7 @@
       <c r="M15" s="118"/>
     </row>
     <row r="16" spans="2:13" ht="14.5">
-      <c r="B16" s="356"/>
+      <c r="B16" s="354"/>
       <c r="C16" s="219" t="s">
         <v>205</v>
       </c>
@@ -30119,7 +30119,7 @@
       <c r="M16" s="118"/>
     </row>
     <row r="17" spans="2:13" ht="14.5">
-      <c r="B17" s="356"/>
+      <c r="B17" s="354"/>
       <c r="C17" s="219" t="s">
         <v>224</v>
       </c>
@@ -30151,7 +30151,7 @@
       <c r="M17" s="118"/>
     </row>
     <row r="18" spans="2:13" ht="14.5">
-      <c r="B18" s="356"/>
+      <c r="B18" s="354"/>
       <c r="C18" s="219" t="s">
         <v>244</v>
       </c>
@@ -30183,7 +30183,7 @@
       <c r="M18" s="118"/>
     </row>
     <row r="19" spans="2:13" s="118" customFormat="1" ht="14.5">
-      <c r="B19" s="356"/>
+      <c r="B19" s="354"/>
       <c r="C19" s="219" t="s">
         <v>215</v>
       </c>
@@ -30213,7 +30213,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="14.5">
-      <c r="B20" s="356"/>
+      <c r="B20" s="354"/>
       <c r="C20" s="219" t="s">
         <v>245</v>
       </c>
@@ -30245,7 +30245,7 @@
       <c r="M20" s="190"/>
     </row>
     <row r="21" spans="2:13" ht="14.5">
-      <c r="B21" s="356"/>
+      <c r="B21" s="354"/>
       <c r="C21" s="219" t="s">
         <v>207</v>
       </c>
@@ -30277,7 +30277,7 @@
       <c r="M21" s="118"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
-      <c r="B22" s="356"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="219" t="s">
         <v>246</v>
       </c>
@@ -30309,7 +30309,7 @@
       <c r="M22" s="190"/>
     </row>
     <row r="23" spans="2:13" ht="14.75" customHeight="1">
-      <c r="B23" s="357"/>
+      <c r="B23" s="355"/>
       <c r="C23" s="219" t="s">
         <v>247</v>
       </c>
@@ -30373,7 +30373,7 @@
       <c r="M24" s="118"/>
     </row>
     <row r="25" spans="2:13" ht="14.75" customHeight="1">
-      <c r="B25" s="360" t="s">
+      <c r="B25" s="358" t="s">
         <v>200</v>
       </c>
       <c r="C25" s="218" t="s">
@@ -30407,7 +30407,7 @@
       <c r="M25" s="118"/>
     </row>
     <row r="26" spans="2:13" ht="14.5">
-      <c r="B26" s="361"/>
+      <c r="B26" s="359"/>
       <c r="C26" s="219" t="s">
         <v>239</v>
       </c>
@@ -30439,7 +30439,7 @@
       <c r="M26" s="118"/>
     </row>
     <row r="27" spans="2:13" ht="14.5">
-      <c r="B27" s="361"/>
+      <c r="B27" s="359"/>
       <c r="C27" s="219" t="s">
         <v>206</v>
       </c>
@@ -30471,7 +30471,7 @@
       <c r="M27" s="118"/>
     </row>
     <row r="28" spans="2:13" ht="14.5">
-      <c r="B28" s="361"/>
+      <c r="B28" s="359"/>
       <c r="C28" s="219" t="s">
         <v>245</v>
       </c>
@@ -30503,7 +30503,7 @@
       <c r="M28" s="118"/>
     </row>
     <row r="29" spans="2:13" ht="14.5">
-      <c r="B29" s="361"/>
+      <c r="B29" s="359"/>
       <c r="C29" s="219" t="s">
         <v>224</v>
       </c>
@@ -30535,7 +30535,7 @@
       <c r="M29" s="118"/>
     </row>
     <row r="30" spans="2:13" ht="14.5">
-      <c r="B30" s="361"/>
+      <c r="B30" s="359"/>
       <c r="C30" s="219" t="s">
         <v>238</v>
       </c>
@@ -30567,7 +30567,7 @@
       <c r="M30" s="118"/>
     </row>
     <row r="31" spans="2:13" ht="14.5">
-      <c r="B31" s="361"/>
+      <c r="B31" s="359"/>
       <c r="C31" s="219" t="s">
         <v>241</v>
       </c>
@@ -30599,7 +30599,7 @@
       <c r="M31" s="118"/>
     </row>
     <row r="32" spans="2:13" ht="14.5">
-      <c r="B32" s="361"/>
+      <c r="B32" s="359"/>
       <c r="C32" s="219" t="s">
         <v>247</v>
       </c>
@@ -30631,7 +30631,7 @@
       <c r="M32" s="118"/>
     </row>
     <row r="33" spans="2:11" ht="14.5">
-      <c r="B33" s="361"/>
+      <c r="B33" s="359"/>
       <c r="C33" s="219" t="s">
         <v>201</v>
       </c>
@@ -30661,7 +30661,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="14.5">
-      <c r="B34" s="361"/>
+      <c r="B34" s="359"/>
       <c r="C34" s="219" t="s">
         <v>204</v>
       </c>
@@ -30691,7 +30691,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="14.5">
-      <c r="B35" s="361"/>
+      <c r="B35" s="359"/>
       <c r="C35" s="219" t="s">
         <v>205</v>
       </c>
@@ -30721,7 +30721,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="14.5">
-      <c r="B36" s="361"/>
+      <c r="B36" s="359"/>
       <c r="C36" s="219" t="s">
         <v>248</v>
       </c>
@@ -30751,7 +30751,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="14.5">
-      <c r="B37" s="361"/>
+      <c r="B37" s="359"/>
       <c r="C37" s="219" t="s">
         <v>249</v>
       </c>
@@ -30781,7 +30781,7 @@
       </c>
     </row>
     <row r="38" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B38" s="361"/>
+      <c r="B38" s="359"/>
       <c r="C38" s="219" t="s">
         <v>246</v>
       </c>
@@ -30811,7 +30811,7 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="14.5">
-      <c r="B39" s="361"/>
+      <c r="B39" s="359"/>
       <c r="C39" s="219" t="s">
         <v>223</v>
       </c>
@@ -30841,7 +30841,7 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="14.5">
-      <c r="B40" s="361"/>
+      <c r="B40" s="359"/>
       <c r="C40" s="219" t="s">
         <v>250</v>
       </c>
@@ -30871,7 +30871,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="14.5">
-      <c r="B41" s="361"/>
+      <c r="B41" s="359"/>
       <c r="C41" s="219" t="s">
         <v>251</v>
       </c>
@@ -30901,7 +30901,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="14.5">
-      <c r="B42" s="361"/>
+      <c r="B42" s="359"/>
       <c r="C42" s="219" t="s">
         <v>252</v>
       </c>
@@ -30931,7 +30931,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="14.5">
-      <c r="B43" s="361"/>
+      <c r="B43" s="359"/>
       <c r="C43" s="219" t="s">
         <v>215</v>
       </c>
@@ -30961,7 +30961,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="14.5">
-      <c r="B44" s="362"/>
+      <c r="B44" s="360"/>
       <c r="C44" s="219" t="s">
         <v>253</v>
       </c>
@@ -31021,7 +31021,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="14.5">
-      <c r="B46" s="360" t="s">
+      <c r="B46" s="358" t="s">
         <v>222</v>
       </c>
       <c r="C46" s="218" t="s">
@@ -31053,7 +31053,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B47" s="361"/>
+      <c r="B47" s="359"/>
       <c r="C47" s="219" t="s">
         <v>212</v>
       </c>
@@ -31083,7 +31083,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B48" s="361"/>
+      <c r="B48" s="359"/>
       <c r="C48" s="219" t="s">
         <v>254</v>
       </c>
@@ -31113,7 +31113,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B49" s="361"/>
+      <c r="B49" s="359"/>
       <c r="C49" s="219" t="s">
         <v>206</v>
       </c>
@@ -31143,7 +31143,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" ht="14.5">
-      <c r="B50" s="361"/>
+      <c r="B50" s="359"/>
       <c r="C50" s="219" t="s">
         <v>255</v>
       </c>
@@ -31173,7 +31173,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B51" s="361"/>
+      <c r="B51" s="359"/>
       <c r="C51" s="219" t="s">
         <v>238</v>
       </c>
@@ -31203,7 +31203,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="14.5">
-      <c r="B52" s="361"/>
+      <c r="B52" s="359"/>
       <c r="C52" s="219" t="s">
         <v>253</v>
       </c>
@@ -31233,7 +31233,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="14.5">
-      <c r="B53" s="361"/>
+      <c r="B53" s="359"/>
       <c r="C53" s="219" t="s">
         <v>242</v>
       </c>
@@ -31263,7 +31263,7 @@
       </c>
     </row>
     <row r="54" spans="2:11" ht="14.5">
-      <c r="B54" s="361"/>
+      <c r="B54" s="359"/>
       <c r="C54" s="219" t="s">
         <v>205</v>
       </c>
@@ -31293,7 +31293,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" ht="14.5">
-      <c r="B55" s="361"/>
+      <c r="B55" s="359"/>
       <c r="C55" s="219" t="s">
         <v>245</v>
       </c>
@@ -31323,7 +31323,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" ht="14.5">
-      <c r="B56" s="361"/>
+      <c r="B56" s="359"/>
       <c r="C56" s="219" t="s">
         <v>201</v>
       </c>
@@ -31353,7 +31353,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="14.5">
-      <c r="B57" s="362"/>
+      <c r="B57" s="360"/>
       <c r="C57" s="219" t="s">
         <v>244</v>
       </c>
@@ -31413,7 +31413,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" ht="14.5">
-      <c r="B59" s="360" t="s">
+      <c r="B59" s="358" t="s">
         <v>232</v>
       </c>
       <c r="C59" s="218" t="s">
@@ -31445,7 +31445,7 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="14.5">
-      <c r="B60" s="361"/>
+      <c r="B60" s="359"/>
       <c r="C60" s="219" t="s">
         <v>212</v>
       </c>
@@ -31475,7 +31475,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" ht="14.5">
-      <c r="B61" s="361"/>
+      <c r="B61" s="359"/>
       <c r="C61" s="219" t="s">
         <v>242</v>
       </c>
@@ -31505,7 +31505,7 @@
       </c>
     </row>
     <row r="62" spans="2:11" ht="14.5">
-      <c r="B62" s="361"/>
+      <c r="B62" s="359"/>
       <c r="C62" s="219" t="s">
         <v>244</v>
       </c>
@@ -31535,7 +31535,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="14.5">
-      <c r="B63" s="361"/>
+      <c r="B63" s="359"/>
       <c r="C63" s="219" t="s">
         <v>253</v>
       </c>
@@ -31565,7 +31565,7 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="14.5">
-      <c r="B64" s="361"/>
+      <c r="B64" s="359"/>
       <c r="C64" s="219" t="s">
         <v>245</v>
       </c>
@@ -31595,7 +31595,7 @@
       </c>
     </row>
     <row r="65" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B65" s="361"/>
+      <c r="B65" s="359"/>
       <c r="C65" s="219" t="s">
         <v>256</v>
       </c>
@@ -31625,7 +31625,7 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="14.5">
-      <c r="B66" s="361"/>
+      <c r="B66" s="359"/>
       <c r="C66" s="219" t="s">
         <v>240</v>
       </c>
@@ -31655,7 +31655,7 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B67" s="361"/>
+      <c r="B67" s="359"/>
       <c r="C67" s="219" t="s">
         <v>257</v>
       </c>
@@ -31685,7 +31685,7 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="14.5">
-      <c r="B68" s="361"/>
+      <c r="B68" s="359"/>
       <c r="C68" s="219" t="s">
         <v>258</v>
       </c>
@@ -31715,7 +31715,7 @@
       </c>
     </row>
     <row r="69" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B69" s="361"/>
+      <c r="B69" s="359"/>
       <c r="C69" s="219" t="s">
         <v>246</v>
       </c>
@@ -31745,7 +31745,7 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="14.5">
-      <c r="B70" s="361"/>
+      <c r="B70" s="359"/>
       <c r="C70" s="219" t="s">
         <v>259</v>
       </c>
@@ -31775,7 +31775,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B71" s="361"/>
+      <c r="B71" s="359"/>
       <c r="C71" s="219" t="s">
         <v>254</v>
       </c>
@@ -31805,7 +31805,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" ht="14.5">
-      <c r="B72" s="361"/>
+      <c r="B72" s="359"/>
       <c r="C72" s="219" t="s">
         <v>215</v>
       </c>
@@ -31835,7 +31835,7 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="12.5" customHeight="1">
-      <c r="B73" s="362"/>
+      <c r="B73" s="360"/>
       <c r="C73" s="219" t="s">
         <v>205</v>
       </c>
@@ -31895,7 +31895,7 @@
       </c>
     </row>
     <row r="75" spans="2:11" ht="14.5">
-      <c r="B75" s="360" t="s">
+      <c r="B75" s="358" t="s">
         <v>230</v>
       </c>
       <c r="C75" s="218" t="s">
@@ -31927,7 +31927,7 @@
       </c>
     </row>
     <row r="76" spans="2:11" ht="14.5">
-      <c r="B76" s="361"/>
+      <c r="B76" s="359"/>
       <c r="C76" s="219" t="s">
         <v>206</v>
       </c>
@@ -31957,7 +31957,7 @@
       </c>
     </row>
     <row r="77" spans="2:11" ht="14.5">
-      <c r="B77" s="361"/>
+      <c r="B77" s="359"/>
       <c r="C77" s="219" t="s">
         <v>249</v>
       </c>
@@ -31987,7 +31987,7 @@
       </c>
     </row>
     <row r="78" spans="2:11" ht="14.5">
-      <c r="B78" s="361"/>
+      <c r="B78" s="359"/>
       <c r="C78" s="219" t="s">
         <v>238</v>
       </c>
@@ -32017,7 +32017,7 @@
       </c>
     </row>
     <row r="79" spans="2:11" ht="14.5">
-      <c r="B79" s="361"/>
+      <c r="B79" s="359"/>
       <c r="C79" s="219" t="s">
         <v>245</v>
       </c>
@@ -32047,7 +32047,7 @@
       </c>
     </row>
     <row r="80" spans="2:11" ht="14.5">
-      <c r="B80" s="361"/>
+      <c r="B80" s="359"/>
       <c r="C80" s="219" t="s">
         <v>260</v>
       </c>
@@ -32077,7 +32077,7 @@
       </c>
     </row>
     <row r="81" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B81" s="361"/>
+      <c r="B81" s="359"/>
       <c r="C81" s="219" t="s">
         <v>207</v>
       </c>
@@ -32107,7 +32107,7 @@
       </c>
     </row>
     <row r="82" spans="2:11" ht="14.5">
-      <c r="B82" s="361"/>
+      <c r="B82" s="359"/>
       <c r="C82" s="219" t="s">
         <v>212</v>
       </c>
@@ -32137,7 +32137,7 @@
       </c>
     </row>
     <row r="83" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B83" s="362"/>
+      <c r="B83" s="360"/>
       <c r="C83" s="219" t="s">
         <v>205</v>
       </c>
@@ -32197,7 +32197,7 @@
       </c>
     </row>
     <row r="85" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B85" s="360" t="s">
+      <c r="B85" s="358" t="s">
         <v>218</v>
       </c>
       <c r="C85" s="218" t="s">
@@ -32229,7 +32229,7 @@
       </c>
     </row>
     <row r="86" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B86" s="361"/>
+      <c r="B86" s="359"/>
       <c r="C86" s="219" t="s">
         <v>249</v>
       </c>
@@ -32259,7 +32259,7 @@
       </c>
     </row>
     <row r="87" spans="2:11" s="118" customFormat="1" ht="14.75" customHeight="1">
-      <c r="B87" s="362"/>
+      <c r="B87" s="360"/>
       <c r="C87" s="219" t="s">
         <v>205</v>
       </c>
@@ -32319,7 +32319,7 @@
       </c>
     </row>
     <row r="89" spans="2:11" s="118" customFormat="1" ht="14.75" customHeight="1">
-      <c r="B89" s="360" t="s">
+      <c r="B89" s="358" t="s">
         <v>226</v>
       </c>
       <c r="C89" s="218" t="s">
@@ -32351,7 +32351,7 @@
       </c>
     </row>
     <row r="90" spans="2:11" ht="14.75" customHeight="1">
-      <c r="B90" s="361"/>
+      <c r="B90" s="359"/>
       <c r="C90" s="219" t="s">
         <v>245</v>
       </c>
@@ -32381,7 +32381,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" ht="14.5">
-      <c r="B91" s="361"/>
+      <c r="B91" s="359"/>
       <c r="C91" s="219" t="s">
         <v>205</v>
       </c>
@@ -32411,7 +32411,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" ht="14.75" customHeight="1">
-      <c r="B92" s="361"/>
+      <c r="B92" s="359"/>
       <c r="C92" s="219" t="s">
         <v>239</v>
       </c>
@@ -32441,7 +32441,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" ht="14.75" customHeight="1">
-      <c r="B93" s="361"/>
+      <c r="B93" s="359"/>
       <c r="C93" s="219" t="s">
         <v>206</v>
       </c>
@@ -32471,7 +32471,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" ht="14.5">
-      <c r="B94" s="361"/>
+      <c r="B94" s="359"/>
       <c r="C94" s="219" t="s">
         <v>247</v>
       </c>
@@ -32501,7 +32501,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" ht="15" customHeight="1">
-      <c r="B95" s="362"/>
+      <c r="B95" s="360"/>
       <c r="C95" s="219" t="s">
         <v>201</v>
       </c>
@@ -32561,7 +32561,7 @@
       </c>
     </row>
     <row r="97" spans="2:11" ht="14.5">
-      <c r="B97" s="360" t="s">
+      <c r="B97" s="358" t="s">
         <v>220</v>
       </c>
       <c r="C97" s="218" t="s">
@@ -32593,7 +32593,7 @@
       </c>
     </row>
     <row r="98" spans="2:11" ht="14.5">
-      <c r="B98" s="361"/>
+      <c r="B98" s="359"/>
       <c r="C98" s="219" t="s">
         <v>212</v>
       </c>
@@ -32623,7 +32623,7 @@
       </c>
     </row>
     <row r="99" spans="2:11" s="118" customFormat="1" ht="14.5">
-      <c r="B99" s="362"/>
+      <c r="B99" s="360"/>
       <c r="C99" s="219" t="s">
         <v>239</v>
       </c>
@@ -32780,26 +32780,21 @@
       </c>
     </row>
     <row r="105" spans="2:11" ht="13">
-      <c r="B105" s="365" t="s">
+      <c r="B105" s="361" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="365"/>
-      <c r="D105" s="365"/>
-      <c r="E105" s="365"/>
-      <c r="F105" s="365"/>
-      <c r="G105" s="365"/>
-      <c r="H105" s="365"/>
-      <c r="I105" s="365"/>
-      <c r="J105" s="365"/>
-      <c r="K105" s="365"/>
+      <c r="C105" s="361"/>
+      <c r="D105" s="361"/>
+      <c r="E105" s="361"/>
+      <c r="F105" s="361"/>
+      <c r="G105" s="361"/>
+      <c r="H105" s="361"/>
+      <c r="I105" s="361"/>
+      <c r="J105" s="361"/>
+      <c r="K105" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B105:K105"/>
     <mergeCell ref="B6:B23"/>
     <mergeCell ref="B25:B44"/>
     <mergeCell ref="B46:B57"/>
@@ -32809,6 +32804,11 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B105:K105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M2" location="Índice!A1" display="Volver al índice" xr:uid="{9DA08D03-3792-4A22-826B-F9F185623CAC}"/>
@@ -33094,7 +33094,7 @@
   </sheetPr>
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="80" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="80" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:I8"/>
     </sheetView>
   </sheetViews>
@@ -34281,7 +34281,9 @@
   </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
   <cols>
@@ -37591,6 +37593,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<groups xmlns="http://grouplists.napkyn.com">
+  <group xmlns="http://grouplists.napkyn.com">[]</group>
+</groups>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -37599,16 +37607,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<groups xmlns="http://grouplists.napkyn.com">
-  <group xmlns="http://grouplists.napkyn.com">[]</group>
-</groups>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<reportings xmlns="http://reportinglists.napkyn.com">
-  <reporting xmlns="http://reportinglists.napkyn.com">[]</reporting>
-</reportings>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37835,12 +37837,20 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<reportings xmlns="http://reportinglists.napkyn.com">
+  <reporting xmlns="http://reportinglists.napkyn.com">[]</reporting>
+</reportings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882BC85F-ADC0-45FC-92C5-E479A73A1B75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://grouplists.napkyn.com"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6740CC98-7629-41FB-AB91-51A9F1087BC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -37848,18 +37858,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{882BC85F-ADC0-45FC-92C5-E479A73A1B75}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BA7527-B919-4D44-89BB-DC2C2AB8D5F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://grouplists.napkyn.com"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA79377-E0CF-45DE-BF64-4EF9EF037217}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://reportinglists.napkyn.com"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37884,10 +37887,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BA7527-B919-4D44-89BB-DC2C2AB8D5F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA79377-E0CF-45DE-BF64-4EF9EF037217}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://reportinglists.napkyn.com"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>